--- a/Yukinoshita/kc_models/舰c数值模型.xlsx
+++ b/Yukinoshita/kc_models/舰c数值模型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512bbb4ca90462df/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512bbb4ca90462df/oregairu/yukinoshita/kc_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1976" documentId="8_{AC98E26A-4F9F-4D9C-8E09-58F3D26A7621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A815E4-1493-4AB3-BAE3-ACF7EF82DCAC}"/>
+  <xr:revisionPtr revIDLastSave="1979" documentId="8_{AC98E26A-4F9F-4D9C-8E09-58F3D26A7621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D4979D-F0E2-44EA-8F8E-842751B31B40}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{5AFF977E-270C-4F96-957F-B82AB1156198}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{5AFF977E-270C-4F96-957F-B82AB1156198}"/>
   </bookViews>
   <sheets>
     <sheet name="驱逐夜战ci发动率" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="232">
   <si>
     <t>运</t>
   </si>
@@ -916,6 +916,10 @@
   </si>
   <si>
     <t>重爆</t>
+  </si>
+  <si>
+    <t>鱼鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1399,17 +1403,11 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1420,40 +1418,40 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,21 +1478,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1504,14 +1487,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1522,50 +1520,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1598,7 +1563,46 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1667,26 +1671,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1724,7 +1712,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1830,7 +1818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1972,7 +1960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2009,43 +1997,43 @@
       <c r="B1" s="6">
         <v>99</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76" t="s">
+      <c r="M1" s="73"/>
+      <c r="N1" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="73" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="73"/>
+      <c r="Q1" s="70"/>
       <c r="R1" t="s">
         <v>118</v>
       </c>
@@ -2057,13 +2045,13 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="39" t="s">
         <v>119</v>
       </c>
@@ -8992,17 +8980,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9013,8 +9001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCFD7B4-7527-4EFD-895F-453FC91B8090}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9129,10 +9117,10 @@
         <v>173.99070478491456</v>
       </c>
       <c r="L3" s="1">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M3" s="1">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -9148,11 +9136,11 @@
       </c>
       <c r="R3" s="1">
         <f>INT(IF(M3&gt;50,65+SQRT(M3-50)+0.8*SQRT(L3),15+M3+0.75*SQRT(L3)))</f>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="S3" s="1">
         <f>N3+O3+P3+Q3+R3</f>
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -9206,16 +9194,16 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80" t="s">
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
       <c r="I8" s="34" t="s">
         <v>21</v>
       </c>
@@ -9248,7 +9236,7 @@
       </c>
       <c r="D9" s="18">
         <f>IF(Q3=9,8/9*S3/125,0)</f>
-        <v>0.66844444444444451</v>
+        <v>0.71822222222222221</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>26</v>
@@ -9258,15 +9246,15 @@
       </c>
       <c r="G9" s="20">
         <f>2/3*S3/115</f>
-        <v>0.54492753623188406</v>
+        <v>0.58550724637681151</v>
       </c>
       <c r="I9" s="30">
         <f>D9+D11</f>
-        <v>0.85952641165755916</v>
+        <v>0.8771730418943533</v>
       </c>
       <c r="J9" s="31">
         <f>G9+G11+G13</f>
-        <v>0.65527536231884054</v>
+        <v>0.65920478890989287</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>46</v>
@@ -9277,13 +9265,13 @@
       <c r="N9" s="19">
         <v>1.2</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="104">
         <v>1.5</v>
       </c>
-      <c r="P9" s="84">
+      <c r="P9" s="105">
         <v>1.3</v>
       </c>
-      <c r="Q9" s="83">
+      <c r="Q9" s="104">
         <v>1.3</v>
       </c>
     </row>
@@ -9294,7 +9282,7 @@
       </c>
       <c r="D10" s="18">
         <f>IF(Q3=9,1/9*S3/125,0)</f>
-        <v>8.3555555555555563E-2</v>
+        <v>8.9777777777777776E-2</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
@@ -9302,7 +9290,7 @@
       </c>
       <c r="G10" s="20">
         <f>1/3*S3/115</f>
-        <v>0.27246376811594203</v>
+        <v>0.29275362318840575</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>47</v>
@@ -9315,20 +9303,20 @@
         <f>N9*1.25</f>
         <v>1.5</v>
       </c>
-      <c r="O10" s="83"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="83"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="104"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="18">
         <f>(1-D9-D10)*S3/122</f>
-        <v>0.19108196721311471</v>
+        <v>0.15895081967213115</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>27</v>
@@ -9338,7 +9326,7 @@
       </c>
       <c r="G11" s="20">
         <f>IF(Q3&gt;0,1/2*(1-G9-G10)*S3/140,0)</f>
-        <v>6.1304347826086958E-2</v>
+        <v>4.3913043478260916E-2</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>68</v>
@@ -9354,9 +9342,9 @@
         <f>N9*1.4</f>
         <v>1.68</v>
       </c>
-      <c r="O11" s="83"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="83"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="104"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
@@ -9368,7 +9356,7 @@
       </c>
       <c r="G12" s="20">
         <f>G11</f>
-        <v>6.1304347826086958E-2</v>
+        <v>4.3913043478260916E-2</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>19</v>
@@ -9387,9 +9375,9 @@
         <f>N9*1.25*1.05</f>
         <v>1.5750000000000002</v>
       </c>
-      <c r="O12" s="83"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="83"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="104"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="17"/>
@@ -9403,7 +9391,7 @@
       </c>
       <c r="G13" s="20">
         <f>(1-S3/115)*(1-S3/140)*S3/115</f>
-        <v>4.9043478260869557E-2</v>
+        <v>2.9784499054820404E-2</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>26</v>
@@ -9422,9 +9410,9 @@
         <f>N9*1.4*1.05</f>
         <v>1.764</v>
       </c>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="83"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="104"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
@@ -9433,7 +9421,7 @@
       <c r="C14" s="17"/>
       <c r="D14" s="18">
         <f>1-SUM(D9:D13)</f>
-        <v>5.6918032786885231E-2</v>
+        <v>3.3049180327868966E-2</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>25</v>
@@ -9441,7 +9429,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="20">
         <f>1-SUM(G9:G13)</f>
-        <v>1.0956521739130531E-2</v>
+        <v>4.1285444234406832E-3</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>27</v>
@@ -9460,9 +9448,9 @@
         <f>N9*1.1*1.4</f>
         <v>1.8479999999999999</v>
       </c>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="83"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="104"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D15" s="8"/>
@@ -9526,18 +9514,18 @@
       <c r="B21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="I21" s="87" t="s">
+      <c r="D21" s="78"/>
+      <c r="I21" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="88"/>
-      <c r="P21" s="87" t="s">
+      <c r="J21" s="78"/>
+      <c r="P21" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="88"/>
+      <c r="Q21" s="78"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
@@ -9789,10 +9777,10 @@
       <c r="B27" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="78"/>
       <c r="H27" t="s">
         <v>67</v>
       </c>
@@ -9813,28 +9801,28 @@
       <c r="F28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="105" t="s">
+      <c r="H28" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="97">
+      <c r="C29" s="79">
         <f>D23*2*D9+D23*1*D10+D23*2*D11+F18*D14</f>
-        <v>790.48395491396889</v>
+        <v>802.89014586402504</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>19</v>
@@ -9843,26 +9831,26 @@
         <f>0.5*((IF(ISNUMBER(F23),F23,0)+IF(ISNUMBER(G23),G23,0))*2*8/9+(IF(ISNUMBER(F23),F23,0)+IF(ISNUMBER(G23),G23,0))*1/8)</f>
         <v>144.61111111111111</v>
       </c>
-      <c r="F29" s="97">
+      <c r="F29" s="79">
         <f>0.5*((IF(ISNUMBER(F23),F23,0)+IF(ISNUMBER(G23),G23,0))*2*D9+(IF(ISNUMBER(F23),F23,0)+IF(ISNUMBER(G23),G23,0))*D10+(IF(ISNUMBER(F24),F24,0)+IF(ISNUMBER(G24),G24,0))*2)</f>
-        <v>259.95377777777776</v>
-      </c>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
+        <v>267.9928888888889</v>
+      </c>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="90"/>
-      <c r="C30" s="98"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="17" t="s">
         <v>24</v>
       </c>
@@ -9870,27 +9858,27 @@
         <f>0.5*((IF(ISNUMBER(F24),F24,0)+IF(ISNUMBER(G24),G24,0))*2)</f>
         <v>152</v>
       </c>
-      <c r="F30" s="98"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="105"/>
+      <c r="F30" s="80"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="99">
+      <c r="C31" s="81">
         <f>K23*2*G9+K23*G10+K24*2*G11+K24*G12+K25*2*G13+F19*G14</f>
-        <v>729.99702033663652</v>
+        <v>739.19363673260364</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>41</v>
@@ -9899,26 +9887,26 @@
         <f>0.5*(2*2/3*(IF(ISNUMBER(M23),M23,0)+IF(ISNUMBER(N23),N23,0))+1*1/3*(IF(ISNUMBER(M23),M23,0)+IF(ISNUMBER(N23),N23,0)))</f>
         <v>144.16666666666666</v>
       </c>
-      <c r="F31" s="99">
+      <c r="F31" s="81">
         <f>0.5*((IF(ISNUMBER(M23),M23,0)+IF(ISNUMBER(N23),N23,0))*2*G9+(IF(ISNUMBER(M23),M23,0)+IF(ISNUMBER(N23),N23,0)*G10)+(IF(ISNUMBER(M24),M24,0)+IF(ISNUMBER(N24),N24,0))*2*G11+(IF(ISNUMBER(M24),M24,0)+IF(ISNUMBER(N24),N24,0))*G12+(IF(ISNUMBER(M25),M25,0)+IF(ISNUMBER(N25),N25,0))*G13)</f>
-        <v>132.44940579710146</v>
-      </c>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
-      <c r="S31" s="105"/>
+        <v>136.90133144297414</v>
+      </c>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="92"/>
-      <c r="C32" s="100"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="23" t="s">
         <v>27</v>
       </c>
@@ -9926,23 +9914,23 @@
         <f>0.5*(2*1/2*(IF(ISNUMBER(M24),M24,0)+IF(ISNUMBER(N24),N24,0))+1*1/2*(IF(ISNUMBER(M24),M24,0)+IF(ISNUMBER(N24),N24,0)))</f>
         <v>105.75</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
+      <c r="F32" s="82"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="93"/>
-      <c r="C33" s="101"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="23" t="s">
         <v>28</v>
       </c>
@@ -9950,27 +9938,27 @@
         <f>0.5*2*(IF(ISNUMBER(M25),M25,0)+IF(ISNUMBER(N25),N25,0))</f>
         <v>67</v>
       </c>
-      <c r="F33" s="101"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="105"/>
+      <c r="F33" s="83"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="102">
+      <c r="C34" s="95">
         <f>R23*G9*2+R23*G10+R24*G11*2+R24*G12+R25*G13+F19*G14</f>
-        <v>683.79397685837546</v>
+        <v>698.80031915226346</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>42</v>
@@ -9979,27 +9967,27 @@
         <f>0.5*(2*2/3*(IF(ISNUMBER(T23),T23,0)+IF(ISNUMBER(U23),U23,0))+1*1/3*(IF(ISNUMBER(T23),T23,0)+IF(ISNUMBER(U23),U23,0)))</f>
         <v>129.16666666666666</v>
       </c>
-      <c r="F34" s="102">
+      <c r="F34" s="95">
         <f>0.5*((IF(ISNUMBER(T23),T23,0)+IF(ISNUMBER(U23),U23,0))*2*G9+(IF(ISNUMBER(T23),T23,0)+IF(ISNUMBER(U23),U23,0)*G10)+(IF(ISNUMBER(T24),T24,0)+IF(ISNUMBER(U24),U24,0))*2*G11+(IF(ISNUMBER(T24),T24,0)+IF(ISNUMBER(U24),U24,0))*G12+(IF(ISNUMBER(T25),T25,0)+IF(ISNUMBER(U25),U25,0))*G13)</f>
-        <v>118.34940579710145</v>
+        <v>122.41002709514807</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="95"/>
-      <c r="C35" s="103"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="19" t="s">
         <v>27</v>
       </c>
@@ -10007,24 +9995,24 @@
         <f>0.5*(2*1/2*(IF(ISNUMBER(T24),T24,0)+IF(ISNUMBER(U24),U24,0))+1*1/2*(IF(ISNUMBER(T24),T24,0)+IF(ISNUMBER(U24),U24,0)))</f>
         <v>90.75</v>
       </c>
-      <c r="F35" s="103"/>
+      <c r="F35" s="96"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="96"/>
-      <c r="C36" s="104"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="19" t="s">
         <v>28</v>
       </c>
@@ -10032,20 +10020,20 @@
         <f>0.5*2*(IF(ISNUMBER(T25),T25,0)+IF(ISNUMBER(U25),U25,0))</f>
         <v>67</v>
       </c>
-      <c r="F36" s="104"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="H37" s="12"/>
@@ -10067,12 +10055,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="H28:S36"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O9:O14"/>
+    <mergeCell ref="Q9:Q14"/>
+    <mergeCell ref="P9:P14"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="B29:B30"/>
@@ -10082,11 +10069,12 @@
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="F34:F36"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O9:O14"/>
-    <mergeCell ref="Q9:Q14"/>
-    <mergeCell ref="P9:P14"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="H28:S36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="6">
@@ -10133,64 +10121,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="105" t="s">
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="108" t="s">
+      <c r="S1" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="108" t="s">
+      <c r="S2" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="R3" s="14"/>
@@ -10202,12 +10190,12 @@
       <c r="K4" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="109" t="s">
+      <c r="L4" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
@@ -10487,10 +10475,10 @@
       <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="109">
         <f>IF(C15="同航",1,IF(C15="反航",0.8,IF(C15="T有利",1.2,0.6)))</f>
         <v>0.8</v>
       </c>
@@ -10518,8 +10506,8 @@
       <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="106"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="48">
         <f>FLOOR(IF(G7&gt;170/D15,(170/D15+SQRT(G7-170/D15))*D15,G7*D15),1)</f>
         <v>142</v>
@@ -10529,8 +10517,8 @@
       <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="106"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="48">
         <f>FLOOR(IF(G8&gt;170/D15,(170/D15+SQRT(G8-170/D15))*D15,G8*D15),1)</f>
         <v>119</v>
@@ -10540,8 +10528,8 @@
       <c r="B18" s="7">
         <v>4</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="106"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="48">
         <f>FLOOR(IF(G9&gt;170/D15,(170/D15+SQRT(G9-170/D15))*D15,G9*D15),1)</f>
         <v>150</v>
@@ -10551,8 +10539,8 @@
       <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="106"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="48">
         <f>FLOOR(IF(G10&gt;170/D15,(170/D15+SQRT(G10-170/D15))*D15,G10*D15),1)</f>
         <v>76</v>
@@ -10562,8 +10550,8 @@
       <c r="B20" s="7">
         <v>6</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="48">
         <f>FLOOR(IF(G11&gt;170/D15,(170/D15+SQRT(G11-170/D15))*D15,G11*D15),1)</f>
         <v>78</v>
@@ -10610,10 +10598,10 @@
       <c r="E24" s="7">
         <v>51</v>
       </c>
-      <c r="F24" s="106">
+      <c r="F24" s="109">
         <v>1</v>
       </c>
-      <c r="G24" s="106">
+      <c r="G24" s="109">
         <v>1</v>
       </c>
       <c r="H24" s="7">
@@ -10628,8 +10616,8 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="7">
         <f>(64+2*SQRT(C25)+1.5*SQRT(D25)+E25)*F24*G24</f>
         <v>64</v>
@@ -10642,8 +10630,8 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
       <c r="H26" s="7">
         <f>(64+2*SQRT(C26)+1.5*SQRT(D26)+E26)*F24*G24</f>
         <v>64</v>
@@ -10656,8 +10644,8 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
       <c r="H27" s="7">
         <f>(64+2*SQRT(C27)+1.5*SQRT(D27)+E27)*F24*G24</f>
         <v>64</v>
@@ -10670,8 +10658,8 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
       <c r="H28" s="7">
         <f>(64+2*SQRT(C28)+1.5*SQRT(D28)+E28)*F24*G24</f>
         <v>64</v>
@@ -10684,8 +10672,8 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
       <c r="H29" s="7">
         <f>(64+2*SQRT(C29)+1.5*SQRT(D29)+E29)*F24*G24</f>
         <v>64</v>
@@ -10693,16 +10681,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="K1:Q2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="S2:X2"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="D15:D20"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="K1:Q2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -10725,7 +10713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AC3EE5-D47F-4DCF-99DD-E1C07819FE4B}">
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -10820,20 +10808,20 @@
       <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
@@ -10971,160 +10959,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="136" t="s">
+      <c r="I1" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136" t="s">
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
       <c r="Q1" s="60"/>
       <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
       <c r="Q2" s="60"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="108" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="51" t="s">
@@ -11153,7 +11141,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="110"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="51" t="s">
         <v>148</v>
       </c>
@@ -11189,7 +11177,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="110"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="51" t="s">
         <v>149</v>
       </c>
@@ -11211,22 +11199,22 @@
       <c r="H10" s="57">
         <v>1.2</v>
       </c>
-      <c r="J10" s="130" t="s">
+      <c r="J10" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="133" t="s">
+      <c r="K10" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="126">
+      <c r="L10" s="113">
         <v>1.8</v>
       </c>
-      <c r="M10" s="126">
+      <c r="M10" s="113">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="110"/>
-      <c r="B11" s="122" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="124" t="s">
         <v>174</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -11247,14 +11235,14 @@
       <c r="H11" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="131"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="110"/>
-      <c r="B12" s="122"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="52" t="s">
         <v>158</v>
       </c>
@@ -11273,14 +11261,14 @@
       <c r="H12" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="J12" s="132"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="110"/>
-      <c r="B13" s="122" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="124" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="54" t="s">
@@ -11315,8 +11303,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="110"/>
-      <c r="B14" s="122"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="52" t="s">
         <v>158</v>
       </c>
@@ -11349,8 +11337,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="110"/>
-      <c r="B15" s="122" t="s">
+      <c r="A15" s="108"/>
+      <c r="B15" s="124" t="s">
         <v>151</v>
       </c>
       <c r="C15" s="54" t="s">
@@ -11373,8 +11361,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="110"/>
-      <c r="B16" s="122"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="52" t="s">
         <v>158</v>
       </c>
@@ -11401,8 +11389,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="110"/>
-      <c r="B17" s="122" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="124" t="s">
         <v>152</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -11440,8 +11428,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="110"/>
-      <c r="B18" s="122"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="52" t="s">
         <v>158</v>
       </c>
@@ -11466,19 +11454,19 @@
       <c r="K18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="N18" s="118" t="s">
+      <c r="N18" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="O18" s="112">
+      <c r="O18" s="125">
         <v>1.2</v>
       </c>
-      <c r="P18" s="112">
+      <c r="P18" s="125">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="110"/>
-      <c r="B19" s="122" t="s">
+      <c r="A19" s="108"/>
+      <c r="B19" s="124" t="s">
         <v>153</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -11499,19 +11487,19 @@
       <c r="H19" s="57">
         <v>1</v>
       </c>
-      <c r="J19" s="123" t="s">
+      <c r="J19" s="131" t="s">
         <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N19" s="119"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="110"/>
-      <c r="B20" s="122"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="52" t="s">
         <v>158</v>
       </c>
@@ -11530,18 +11518,18 @@
       <c r="H20" s="57">
         <v>1</v>
       </c>
-      <c r="J20" s="124"/>
+      <c r="J20" s="132"/>
       <c r="K20" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L20" s="59"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="110"/>
-      <c r="B21" s="122" t="s">
+      <c r="A21" s="108"/>
+      <c r="B21" s="124" t="s">
         <v>221</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -11562,24 +11550,24 @@
       <c r="H21" s="57">
         <v>1.5</v>
       </c>
-      <c r="J21" s="124"/>
+      <c r="J21" s="132"/>
       <c r="K21" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L21" s="59"/>
-      <c r="N21" s="118" t="s">
+      <c r="N21" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="O21" s="115" t="s">
+      <c r="O21" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="P21" s="112" t="s">
+      <c r="P21" s="125" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="122"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="52" t="s">
         <v>158</v>
       </c>
@@ -11598,17 +11586,17 @@
       <c r="H22" s="57">
         <v>1.65</v>
       </c>
-      <c r="J22" s="124"/>
+      <c r="J22" s="132"/>
       <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="113"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="126"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="122" t="s">
+      <c r="A23" s="108"/>
+      <c r="B23" s="124" t="s">
         <v>222</v>
       </c>
       <c r="C23" s="54" t="s">
@@ -11629,17 +11617,17 @@
       <c r="H23" s="57">
         <v>1.5</v>
       </c>
-      <c r="J23" s="125"/>
+      <c r="J23" s="133"/>
       <c r="K23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="N23" s="119"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="113"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="126"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="122"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="52" t="s">
         <v>158</v>
       </c>
@@ -11658,18 +11646,18 @@
       <c r="H24" s="57">
         <v>1.65</v>
       </c>
-      <c r="J24" s="123" t="s">
+      <c r="J24" s="131" t="s">
         <v>175</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="N24" s="120"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="114"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="127"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="7" t="s">
         <v>156</v>
       </c>
@@ -11691,48 +11679,48 @@
       <c r="H25" s="57">
         <v>1.2</v>
       </c>
-      <c r="J25" s="124"/>
+      <c r="J25" s="132"/>
       <c r="K25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="N25" s="118" t="s">
+      <c r="N25" s="128" t="s">
         <v>185</v>
       </c>
-      <c r="O25" s="112" t="s">
+      <c r="O25" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="P25" s="112" t="s">
+      <c r="P25" s="125" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="51" t="s">
         <v>157</v>
       </c>
       <c r="C26" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="121" t="s">
+      <c r="D26" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="J26" s="125"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="J26" s="133"/>
       <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="N26" s="119"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="124" t="s">
         <v>176</v>
       </c>
       <c r="C27" s="54" t="s">
@@ -11753,13 +11741,13 @@
       <c r="H27" s="57">
         <v>1.7</v>
       </c>
-      <c r="N27" s="119"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="110"/>
-      <c r="B28" s="122"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="54" t="s">
         <v>160</v>
       </c>
@@ -11781,25 +11769,25 @@
       <c r="J28" t="s">
         <v>209</v>
       </c>
-      <c r="N28" s="120"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="110"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="51" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="121" t="s">
+      <c r="D29" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
       <c r="J29" s="7" t="s">
         <v>94</v>
       </c>
@@ -11809,21 +11797,21 @@
       <c r="L29" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N29" s="118" t="s">
+      <c r="N29" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="O29" s="112" t="s">
+      <c r="O29" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="P29" s="112" t="s">
+      <c r="P29" s="125" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="124" t="s">
         <v>197</v>
       </c>
       <c r="C30" s="54" t="s">
@@ -11853,13 +11841,13 @@
       <c r="L30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="N30" s="119"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="110"/>
-      <c r="B31" s="122"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="52" t="s">
         <v>158</v>
       </c>
@@ -11887,13 +11875,13 @@
       <c r="L31" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="N31" s="120"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="110"/>
-      <c r="B32" s="122" t="s">
+      <c r="A32" s="108"/>
+      <c r="B32" s="124" t="s">
         <v>196</v>
       </c>
       <c r="C32" s="54" t="s">
@@ -11916,8 +11904,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="110"/>
-      <c r="B33" s="122"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="52" t="s">
         <v>158</v>
       </c>
@@ -11941,8 +11929,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="110"/>
-      <c r="B34" s="122" t="s">
+      <c r="A34" s="108"/>
+      <c r="B34" s="124" t="s">
         <v>199</v>
       </c>
       <c r="C34" s="54" t="s">
@@ -11963,19 +11951,19 @@
       <c r="H34" s="57">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J34" s="122" t="s">
+      <c r="J34" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="K34" s="121" t="s">
+      <c r="K34" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="121"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="110"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="52" t="s">
         <v>158</v>
       </c>
@@ -11994,7 +11982,7 @@
       <c r="H35" s="57">
         <v>1.38</v>
       </c>
-      <c r="J35" s="122"/>
+      <c r="J35" s="124"/>
       <c r="K35" s="52">
         <v>1</v>
       </c>
@@ -12009,7 +11997,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="108" t="s">
         <v>193</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -12050,7 +12038,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="110"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="7" t="s">
         <v>195</v>
       </c>
@@ -12130,10 +12118,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="124" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="54" t="s">
@@ -12171,8 +12159,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="110"/>
-      <c r="B40" s="122"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="52" t="s">
         <v>158</v>
       </c>
@@ -12214,21 +12202,26 @@
     <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="B1:B7"/>
-    <mergeCell ref="C1:C7"/>
-    <mergeCell ref="I1:K7"/>
-    <mergeCell ref="L1:P7"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="G1:G6"/>
-    <mergeCell ref="D1:D6"/>
-    <mergeCell ref="E1:E6"/>
-    <mergeCell ref="F1:F6"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="H1:H6"/>
-    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="O25:O28"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="N29:N31"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="D29:H29"/>
@@ -12244,26 +12237,21 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="O25:O28"/>
-    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="G1:G6"/>
+    <mergeCell ref="D1:D6"/>
+    <mergeCell ref="E1:E6"/>
+    <mergeCell ref="F1:F6"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="H1:H6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="B1:B7"/>
+    <mergeCell ref="C1:C7"/>
+    <mergeCell ref="I1:K7"/>
+    <mergeCell ref="L1:P7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12301,93 +12289,93 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110" t="s">
+      <c r="C4" s="108"/>
+      <c r="D4" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="49" t="s">
@@ -12396,12 +12384,12 @@
       <c r="C11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
       <c r="H11" s="42" t="s">
         <v>224</v>
       </c>
@@ -12439,7 +12427,7 @@
       <c r="I12" s="7">
         <v>10</v>
       </c>
-      <c r="J12" s="112">
+      <c r="J12" s="125">
         <f>1+(SUM(对陆计算器!I12:I18)/SUM(对陆计算器!C12:C18)/50)</f>
         <v>1.2</v>
       </c>
@@ -12457,7 +12445,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="113"/>
+      <c r="J13" s="126"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="53" t="s">
@@ -12472,7 +12460,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="113"/>
+      <c r="J14" s="126"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="53" t="s">
@@ -12487,7 +12475,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="113"/>
+      <c r="J15" s="126"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="53" t="s">
@@ -12502,7 +12490,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="113"/>
+      <c r="J16" s="126"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="53" t="s">
@@ -12519,7 +12507,7 @@
       <c r="I17" s="7">
         <v>10</v>
       </c>
-      <c r="J17" s="113"/>
+      <c r="J17" s="126"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
@@ -12534,7 +12522,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="114"/>
+      <c r="J18" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Yukinoshita/kc_models/舰c数值模型.xlsx
+++ b/Yukinoshita/kc_models/舰c数值模型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512bbb4ca90462df/oregairu/yukinoshita/kc_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1979" documentId="8_{AC98E26A-4F9F-4D9C-8E09-58F3D26A7621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D4979D-F0E2-44EA-8F8E-842751B31B40}"/>
+  <xr:revisionPtr revIDLastSave="1980" documentId="8_{AC98E26A-4F9F-4D9C-8E09-58F3D26A7621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3937567A-D425-42AB-9392-47EED3E69832}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{5AFF977E-270C-4F96-957F-B82AB1156198}"/>
   </bookViews>
@@ -1403,11 +1403,17 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1418,40 +1424,40 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,6 +1484,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,29 +1508,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1520,17 +1526,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1563,46 +1602,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1997,43 +1997,43 @@
       <c r="B1" s="6">
         <v>99</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="74" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="70" t="s">
+      <c r="O1" s="76"/>
+      <c r="P1" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="70"/>
+      <c r="Q1" s="73"/>
       <c r="R1" t="s">
         <v>118</v>
       </c>
@@ -2045,13 +2045,13 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
       <c r="J2" s="39" t="s">
         <v>119</v>
       </c>
@@ -8980,17 +8980,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9001,8 +9001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCFD7B4-7527-4EFD-895F-453FC91B8090}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9194,16 +9194,16 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
       <c r="I8" s="34" t="s">
         <v>21</v>
       </c>
@@ -9265,13 +9265,13 @@
       <c r="N9" s="19">
         <v>1.2</v>
       </c>
-      <c r="O9" s="104">
+      <c r="O9" s="83">
         <v>1.5</v>
       </c>
-      <c r="P9" s="105">
+      <c r="P9" s="84">
         <v>1.3</v>
       </c>
-      <c r="Q9" s="104">
+      <c r="Q9" s="83">
         <v>1.3</v>
       </c>
     </row>
@@ -9303,9 +9303,9 @@
         <f>N9*1.25</f>
         <v>1.5</v>
       </c>
-      <c r="O10" s="104"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="104"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="83"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
@@ -9342,9 +9342,9 @@
         <f>N9*1.4</f>
         <v>1.68</v>
       </c>
-      <c r="O11" s="104"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="104"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="83"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
@@ -9375,9 +9375,9 @@
         <f>N9*1.25*1.05</f>
         <v>1.5750000000000002</v>
       </c>
-      <c r="O12" s="104"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="104"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="83"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="17"/>
@@ -9410,9 +9410,9 @@
         <f>N9*1.4*1.05</f>
         <v>1.764</v>
       </c>
-      <c r="O13" s="104"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="104"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="83"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
@@ -9448,9 +9448,9 @@
         <f>N9*1.1*1.4</f>
         <v>1.8479999999999999</v>
       </c>
-      <c r="O14" s="104"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="104"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="83"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D15" s="8"/>
@@ -9514,18 +9514,18 @@
       <c r="B21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="I21" s="77" t="s">
+      <c r="D21" s="88"/>
+      <c r="I21" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="78"/>
-      <c r="P21" s="77" t="s">
+      <c r="J21" s="88"/>
+      <c r="P21" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="78"/>
+      <c r="Q21" s="88"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
@@ -9777,10 +9777,10 @@
       <c r="B27" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="78"/>
+      <c r="D27" s="88"/>
       <c r="H27" t="s">
         <v>67</v>
       </c>
@@ -9801,26 +9801,26 @@
       <c r="F28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="97">
         <f>D23*2*D9+D23*1*D10+D23*2*D11+F18*D14</f>
         <v>802.89014586402504</v>
       </c>
@@ -9831,26 +9831,26 @@
         <f>0.5*((IF(ISNUMBER(F23),F23,0)+IF(ISNUMBER(G23),G23,0))*2*8/9+(IF(ISNUMBER(F23),F23,0)+IF(ISNUMBER(G23),G23,0))*1/8)</f>
         <v>144.61111111111111</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="97">
         <f>0.5*((IF(ISNUMBER(F23),F23,0)+IF(ISNUMBER(G23),G23,0))*2*D9+(IF(ISNUMBER(F23),F23,0)+IF(ISNUMBER(G23),G23,0))*D10+(IF(ISNUMBER(F24),F24,0)+IF(ISNUMBER(G24),G24,0))*2)</f>
         <v>267.9928888888889</v>
       </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="88"/>
-      <c r="C30" s="80"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="17" t="s">
         <v>24</v>
       </c>
@@ -9858,25 +9858,25 @@
         <f>0.5*((IF(ISNUMBER(F24),F24,0)+IF(ISNUMBER(G24),G24,0))*2)</f>
         <v>152</v>
       </c>
-      <c r="F30" s="80"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
+      <c r="F30" s="98"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="99">
         <f>K23*2*G9+K23*G10+K24*2*G11+K24*G12+K25*2*G13+F19*G14</f>
         <v>739.19363673260364</v>
       </c>
@@ -9887,26 +9887,26 @@
         <f>0.5*(2*2/3*(IF(ISNUMBER(M23),M23,0)+IF(ISNUMBER(N23),N23,0))+1*1/3*(IF(ISNUMBER(M23),M23,0)+IF(ISNUMBER(N23),N23,0)))</f>
         <v>144.16666666666666</v>
       </c>
-      <c r="F31" s="81">
+      <c r="F31" s="99">
         <f>0.5*((IF(ISNUMBER(M23),M23,0)+IF(ISNUMBER(N23),N23,0))*2*G9+(IF(ISNUMBER(M23),M23,0)+IF(ISNUMBER(N23),N23,0)*G10)+(IF(ISNUMBER(M24),M24,0)+IF(ISNUMBER(N24),N24,0))*2*G11+(IF(ISNUMBER(M24),M24,0)+IF(ISNUMBER(N24),N24,0))*G12+(IF(ISNUMBER(M25),M25,0)+IF(ISNUMBER(N25),N25,0))*G13)</f>
         <v>136.90133144297414</v>
       </c>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="90"/>
-      <c r="C32" s="82"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="23" t="s">
         <v>27</v>
       </c>
@@ -9914,23 +9914,23 @@
         <f>0.5*(2*1/2*(IF(ISNUMBER(M24),M24,0)+IF(ISNUMBER(N24),N24,0))+1*1/2*(IF(ISNUMBER(M24),M24,0)+IF(ISNUMBER(N24),N24,0)))</f>
         <v>105.75</v>
       </c>
-      <c r="F32" s="82"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
+      <c r="F32" s="100"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="91"/>
-      <c r="C33" s="83"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="23" t="s">
         <v>28</v>
       </c>
@@ -9938,25 +9938,25 @@
         <f>0.5*2*(IF(ISNUMBER(M25),M25,0)+IF(ISNUMBER(N25),N25,0))</f>
         <v>67</v>
       </c>
-      <c r="F33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
+      <c r="F33" s="101"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="95">
+      <c r="C34" s="102">
         <f>R23*G9*2+R23*G10+R24*G11*2+R24*G12+R25*G13+F19*G14</f>
         <v>698.80031915226346</v>
       </c>
@@ -9967,27 +9967,27 @@
         <f>0.5*(2*2/3*(IF(ISNUMBER(T23),T23,0)+IF(ISNUMBER(U23),U23,0))+1*1/3*(IF(ISNUMBER(T23),T23,0)+IF(ISNUMBER(U23),U23,0)))</f>
         <v>129.16666666666666</v>
       </c>
-      <c r="F34" s="95">
+      <c r="F34" s="102">
         <f>0.5*((IF(ISNUMBER(T23),T23,0)+IF(ISNUMBER(U23),U23,0))*2*G9+(IF(ISNUMBER(T23),T23,0)+IF(ISNUMBER(U23),U23,0)*G10)+(IF(ISNUMBER(T24),T24,0)+IF(ISNUMBER(U24),U24,0))*2*G11+(IF(ISNUMBER(T24),T24,0)+IF(ISNUMBER(U24),U24,0))*G12+(IF(ISNUMBER(T25),T25,0)+IF(ISNUMBER(U25),U25,0))*G13)</f>
         <v>122.41002709514807</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="93"/>
-      <c r="C35" s="96"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="19" t="s">
         <v>27</v>
       </c>
@@ -9995,24 +9995,24 @@
         <f>0.5*(2*1/2*(IF(ISNUMBER(T24),T24,0)+IF(ISNUMBER(U24),U24,0))+1*1/2*(IF(ISNUMBER(T24),T24,0)+IF(ISNUMBER(U24),U24,0)))</f>
         <v>90.75</v>
       </c>
-      <c r="F35" s="96"/>
+      <c r="F35" s="103"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="94"/>
-      <c r="C36" s="97"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="104"/>
       <c r="D36" s="19" t="s">
         <v>28</v>
       </c>
@@ -10020,20 +10020,20 @@
         <f>0.5*2*(IF(ISNUMBER(T25),T25,0)+IF(ISNUMBER(U25),U25,0))</f>
         <v>67</v>
       </c>
-      <c r="F36" s="97"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="105"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="H37" s="12"/>
@@ -10055,11 +10055,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O9:O14"/>
-    <mergeCell ref="Q9:Q14"/>
-    <mergeCell ref="P9:P14"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="H28:S36"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="B29:B30"/>
@@ -10069,12 +10070,11 @@
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="F34:F36"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="H28:S36"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O9:O14"/>
+    <mergeCell ref="Q9:Q14"/>
+    <mergeCell ref="P9:P14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="6">
@@ -10121,64 +10121,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="84" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="106" t="s">
+      <c r="S1" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="106" t="s">
+      <c r="S2" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="R3" s="14"/>
@@ -10190,12 +10190,12 @@
       <c r="K4" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
@@ -10475,10 +10475,10 @@
       <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="106">
         <f>IF(C15="同航",1,IF(C15="反航",0.8,IF(C15="T有利",1.2,0.6)))</f>
         <v>0.8</v>
       </c>
@@ -10506,8 +10506,8 @@
       <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="48">
         <f>FLOOR(IF(G7&gt;170/D15,(170/D15+SQRT(G7-170/D15))*D15,G7*D15),1)</f>
         <v>142</v>
@@ -10517,8 +10517,8 @@
       <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="48">
         <f>FLOOR(IF(G8&gt;170/D15,(170/D15+SQRT(G8-170/D15))*D15,G8*D15),1)</f>
         <v>119</v>
@@ -10528,8 +10528,8 @@
       <c r="B18" s="7">
         <v>4</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="48">
         <f>FLOOR(IF(G9&gt;170/D15,(170/D15+SQRT(G9-170/D15))*D15,G9*D15),1)</f>
         <v>150</v>
@@ -10539,8 +10539,8 @@
       <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="106"/>
       <c r="E19" s="48">
         <f>FLOOR(IF(G10&gt;170/D15,(170/D15+SQRT(G10-170/D15))*D15,G10*D15),1)</f>
         <v>76</v>
@@ -10550,8 +10550,8 @@
       <c r="B20" s="7">
         <v>6</v>
       </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="48">
         <f>FLOOR(IF(G11&gt;170/D15,(170/D15+SQRT(G11-170/D15))*D15,G11*D15),1)</f>
         <v>78</v>
@@ -10598,10 +10598,10 @@
       <c r="E24" s="7">
         <v>51</v>
       </c>
-      <c r="F24" s="109">
+      <c r="F24" s="106">
         <v>1</v>
       </c>
-      <c r="G24" s="109">
+      <c r="G24" s="106">
         <v>1</v>
       </c>
       <c r="H24" s="7">
@@ -10616,8 +10616,8 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="7">
         <f>(64+2*SQRT(C25)+1.5*SQRT(D25)+E25)*F24*G24</f>
         <v>64</v>
@@ -10630,8 +10630,8 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="7">
         <f>(64+2*SQRT(C26)+1.5*SQRT(D26)+E26)*F24*G24</f>
         <v>64</v>
@@ -10644,8 +10644,8 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
       <c r="H27" s="7">
         <f>(64+2*SQRT(C27)+1.5*SQRT(D27)+E27)*F24*G24</f>
         <v>64</v>
@@ -10658,8 +10658,8 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="7">
         <f>(64+2*SQRT(C28)+1.5*SQRT(D28)+E28)*F24*G24</f>
         <v>64</v>
@@ -10672,8 +10672,8 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="7">
         <f>(64+2*SQRT(C29)+1.5*SQRT(D29)+E29)*F24*G24</f>
         <v>64</v>
@@ -10681,16 +10681,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
     <mergeCell ref="F24:F29"/>
     <mergeCell ref="G24:G29"/>
     <mergeCell ref="K1:Q2"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -10808,20 +10808,20 @@
       <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
@@ -10959,160 +10959,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="136" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112" t="s">
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
       <c r="Q1" s="60"/>
       <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
       <c r="Q2" s="60"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="123" t="s">
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="51" t="s">
@@ -11141,7 +11141,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="108"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="51" t="s">
         <v>148</v>
       </c>
@@ -11177,7 +11177,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="108"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="51" t="s">
         <v>149</v>
       </c>
@@ -11199,22 +11199,22 @@
       <c r="H10" s="57">
         <v>1.2</v>
       </c>
-      <c r="J10" s="117" t="s">
+      <c r="J10" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="113">
+      <c r="L10" s="126">
         <v>1.8</v>
       </c>
-      <c r="M10" s="113">
+      <c r="M10" s="126">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="108"/>
-      <c r="B11" s="124" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="122" t="s">
         <v>174</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -11235,14 +11235,14 @@
       <c r="H11" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="118"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="108"/>
-      <c r="B12" s="124"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="52" t="s">
         <v>158</v>
       </c>
@@ -11261,14 +11261,14 @@
       <c r="H12" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="J12" s="119"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="108"/>
-      <c r="B13" s="124" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="122" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="54" t="s">
@@ -11303,8 +11303,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="108"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="52" t="s">
         <v>158</v>
       </c>
@@ -11337,8 +11337,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="108"/>
-      <c r="B15" s="124" t="s">
+      <c r="A15" s="110"/>
+      <c r="B15" s="122" t="s">
         <v>151</v>
       </c>
       <c r="C15" s="54" t="s">
@@ -11361,8 +11361,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="108"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="52" t="s">
         <v>158</v>
       </c>
@@ -11389,8 +11389,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="124" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="122" t="s">
         <v>152</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -11428,8 +11428,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="108"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="52" t="s">
         <v>158</v>
       </c>
@@ -11454,19 +11454,19 @@
       <c r="K18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="N18" s="128" t="s">
+      <c r="N18" s="118" t="s">
         <v>184</v>
       </c>
-      <c r="O18" s="125">
+      <c r="O18" s="112">
         <v>1.2</v>
       </c>
-      <c r="P18" s="125">
+      <c r="P18" s="112">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="108"/>
-      <c r="B19" s="124" t="s">
+      <c r="A19" s="110"/>
+      <c r="B19" s="122" t="s">
         <v>153</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -11487,19 +11487,19 @@
       <c r="H19" s="57">
         <v>1</v>
       </c>
-      <c r="J19" s="131" t="s">
+      <c r="J19" s="123" t="s">
         <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N19" s="129"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="108"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="52" t="s">
         <v>158</v>
       </c>
@@ -11518,18 +11518,18 @@
       <c r="H20" s="57">
         <v>1</v>
       </c>
-      <c r="J20" s="132"/>
+      <c r="J20" s="124"/>
       <c r="K20" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L20" s="59"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
-      <c r="B21" s="124" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="122" t="s">
         <v>221</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -11550,24 +11550,24 @@
       <c r="H21" s="57">
         <v>1.5</v>
       </c>
-      <c r="J21" s="132"/>
+      <c r="J21" s="124"/>
       <c r="K21" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L21" s="59"/>
-      <c r="N21" s="128" t="s">
+      <c r="N21" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="O21" s="134" t="s">
+      <c r="O21" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="P21" s="125" t="s">
+      <c r="P21" s="112" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="52" t="s">
         <v>158</v>
       </c>
@@ -11586,17 +11586,17 @@
       <c r="H22" s="57">
         <v>1.65</v>
       </c>
-      <c r="J22" s="132"/>
+      <c r="J22" s="124"/>
       <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="N22" s="129"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="126"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="113"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="124" t="s">
+      <c r="A23" s="110"/>
+      <c r="B23" s="122" t="s">
         <v>222</v>
       </c>
       <c r="C23" s="54" t="s">
@@ -11617,17 +11617,17 @@
       <c r="H23" s="57">
         <v>1.5</v>
       </c>
-      <c r="J23" s="133"/>
+      <c r="J23" s="125"/>
       <c r="K23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="N23" s="129"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="126"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="113"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="124"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="52" t="s">
         <v>158</v>
       </c>
@@ -11646,18 +11646,18 @@
       <c r="H24" s="57">
         <v>1.65</v>
       </c>
-      <c r="J24" s="131" t="s">
+      <c r="J24" s="123" t="s">
         <v>175</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="N24" s="130"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="127"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="114"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="7" t="s">
         <v>156</v>
       </c>
@@ -11679,48 +11679,48 @@
       <c r="H25" s="57">
         <v>1.2</v>
       </c>
-      <c r="J25" s="132"/>
+      <c r="J25" s="124"/>
       <c r="K25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="N25" s="128" t="s">
+      <c r="N25" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="O25" s="125" t="s">
+      <c r="O25" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="P25" s="125" t="s">
+      <c r="P25" s="112" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="51" t="s">
         <v>157</v>
       </c>
       <c r="C26" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="J26" s="133"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="J26" s="125"/>
       <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="N26" s="129"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="122" t="s">
         <v>176</v>
       </c>
       <c r="C27" s="54" t="s">
@@ -11741,13 +11741,13 @@
       <c r="H27" s="57">
         <v>1.7</v>
       </c>
-      <c r="N27" s="129"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="108"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="54" t="s">
         <v>160</v>
       </c>
@@ -11769,25 +11769,25 @@
       <c r="J28" t="s">
         <v>209</v>
       </c>
-      <c r="N28" s="130"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="108"/>
+      <c r="A29" s="110"/>
       <c r="B29" s="51" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="123" t="s">
+      <c r="D29" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
       <c r="J29" s="7" t="s">
         <v>94</v>
       </c>
@@ -11797,21 +11797,21 @@
       <c r="L29" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N29" s="128" t="s">
+      <c r="N29" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="O29" s="125" t="s">
+      <c r="O29" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="P29" s="125" t="s">
+      <c r="P29" s="112" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="122" t="s">
         <v>197</v>
       </c>
       <c r="C30" s="54" t="s">
@@ -11841,13 +11841,13 @@
       <c r="L30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="N30" s="129"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="108"/>
-      <c r="B31" s="124"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="52" t="s">
         <v>158</v>
       </c>
@@ -11875,13 +11875,13 @@
       <c r="L31" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="N31" s="130"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="108"/>
-      <c r="B32" s="124" t="s">
+      <c r="A32" s="110"/>
+      <c r="B32" s="122" t="s">
         <v>196</v>
       </c>
       <c r="C32" s="54" t="s">
@@ -11904,8 +11904,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="108"/>
-      <c r="B33" s="124"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="52" t="s">
         <v>158</v>
       </c>
@@ -11929,8 +11929,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="108"/>
-      <c r="B34" s="124" t="s">
+      <c r="A34" s="110"/>
+      <c r="B34" s="122" t="s">
         <v>199</v>
       </c>
       <c r="C34" s="54" t="s">
@@ -11951,19 +11951,19 @@
       <c r="H34" s="57">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J34" s="124" t="s">
+      <c r="J34" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="K34" s="123" t="s">
+      <c r="K34" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="108"/>
-      <c r="B35" s="124"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="52" t="s">
         <v>158</v>
       </c>
@@ -11982,7 +11982,7 @@
       <c r="H35" s="57">
         <v>1.38</v>
       </c>
-      <c r="J35" s="124"/>
+      <c r="J35" s="122"/>
       <c r="K35" s="52">
         <v>1</v>
       </c>
@@ -11997,7 +11997,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="110" t="s">
         <v>193</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -12038,7 +12038,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="108"/>
+      <c r="A37" s="110"/>
       <c r="B37" s="7" t="s">
         <v>195</v>
       </c>
@@ -12118,10 +12118,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="122" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="54" t="s">
@@ -12159,8 +12159,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="108"/>
-      <c r="B40" s="124"/>
+      <c r="A40" s="110"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="52" t="s">
         <v>158</v>
       </c>
@@ -12202,26 +12202,21 @@
     <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="O25:O28"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="B1:B7"/>
+    <mergeCell ref="C1:C7"/>
+    <mergeCell ref="I1:K7"/>
+    <mergeCell ref="L1:P7"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="G1:G6"/>
+    <mergeCell ref="D1:D6"/>
+    <mergeCell ref="E1:E6"/>
+    <mergeCell ref="F1:F6"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="H1:H6"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="D29:H29"/>
@@ -12237,21 +12232,26 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="G1:G6"/>
-    <mergeCell ref="D1:D6"/>
-    <mergeCell ref="E1:E6"/>
-    <mergeCell ref="F1:F6"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="H1:H6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="B1:B7"/>
-    <mergeCell ref="C1:C7"/>
-    <mergeCell ref="I1:K7"/>
-    <mergeCell ref="L1:P7"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="O25:O28"/>
+    <mergeCell ref="O21:O24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12289,93 +12289,93 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="49" t="s">
@@ -12384,12 +12384,12 @@
       <c r="C11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="121" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
       <c r="H11" s="42" t="s">
         <v>224</v>
       </c>
@@ -12427,7 +12427,7 @@
       <c r="I12" s="7">
         <v>10</v>
       </c>
-      <c r="J12" s="125">
+      <c r="J12" s="112">
         <f>1+(SUM(对陆计算器!I12:I18)/SUM(对陆计算器!C12:C18)/50)</f>
         <v>1.2</v>
       </c>
@@ -12445,7 +12445,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="126"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="53" t="s">
@@ -12460,7 +12460,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="126"/>
+      <c r="J14" s="113"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="53" t="s">
@@ -12475,7 +12475,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="126"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="53" t="s">
@@ -12490,7 +12490,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="126"/>
+      <c r="J16" s="113"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="53" t="s">
@@ -12507,7 +12507,7 @@
       <c r="I17" s="7">
         <v>10</v>
       </c>
-      <c r="J17" s="126"/>
+      <c r="J17" s="113"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
@@ -12522,7 +12522,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="127"/>
+      <c r="J18" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="8">
